--- a/ontwikkeling/voorstel 5.1/KL/Nieuwe_NLCS_Symbolen_KL.xlsx
+++ b/ontwikkeling/voorstel 5.1/KL/Nieuwe_NLCS_Symbolen_KL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\KL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/ontwikkeling/voorstel 5.1/KL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6091D233-DD2B-47FD-A96C-4C53F2E91E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{74978112-B7C2-481F-B02F-FC7358C1E258}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74978112-B7C2-481F-B02F-FC7358C1E258}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbolen" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
